--- a/public/file/new-class-format-import-student.xlsx
+++ b/public/file/new-class-format-import-student.xlsx
@@ -753,7 +753,7 @@
       <formula1>"Nama Guru"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"teacher,staff"</formula1>
+      <formula1>"admin,student,teacher,school,staff,sulaiman"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>"X, XI, XII"</formula1>
